--- a/data/142/STANOR/09672 Current and capital account (Imports).xlsx
+++ b/data/142/STANOR/09672 Current and capital account (Imports).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <x:si>
     <x:t>09672: Current and capital account. Current prices (NOK million), by contents, item and quarter</x:t>
   </x:si>
@@ -508,6 +508,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Current and capital account</x:t>
   </x:si>
   <x:si>
@@ -601,13 +604,13 @@
     <x:t>MEMO: Service import when import of goods FOB</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Current and capital account:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211201 08:00</x:t>
+    <x:t>20220302 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1050,23 +1053,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FI75"/>
+  <x:dimension ref="A1:FJ75"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.650625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="165" width="8.300625" style="0" customWidth="1"/>
+    <x:col min="1" max="166" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:165">
+    <x:row r="1" spans="1:166">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:165">
+    <x:row r="3" spans="1:166">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1556,13 +1557,16 @@
       <x:c r="FI3" s="2" t="s">
         <x:v>163</x:v>
       </x:c>
+      <x:c r="FJ3" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:165">
+    <x:row r="4" spans="1:166">
       <x:c r="A4" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>30496</x:v>
@@ -2045,18 +2049,21 @@
         <x:v>293894</x:v>
       </x:c>
       <x:c r="FG4" s="3" t="n">
-        <x:v>265305</x:v>
+        <x:v>264906</x:v>
       </x:c>
       <x:c r="FH4" s="3" t="n">
-        <x:v>292904</x:v>
+        <x:v>292035</x:v>
       </x:c>
       <x:c r="FI4" s="3" t="n">
-        <x:v>313124</x:v>
+        <x:v>312361</x:v>
+      </x:c>
+      <x:c r="FJ4" s="3" t="n">
+        <x:v>337151</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:165">
+    <x:row r="5" spans="1:166">
       <x:c r="B5" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>23368</x:v>
@@ -2539,18 +2546,21 @@
         <x:v>213051</x:v>
       </x:c>
       <x:c r="FG5" s="3" t="n">
-        <x:v>198281</x:v>
+        <x:v>197821</x:v>
       </x:c>
       <x:c r="FH5" s="3" t="n">
-        <x:v>221635</x:v>
+        <x:v>221246</x:v>
       </x:c>
       <x:c r="FI5" s="3" t="n">
-        <x:v>228198</x:v>
+        <x:v>227225</x:v>
+      </x:c>
+      <x:c r="FJ5" s="3" t="n">
+        <x:v>236952</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:165">
+    <x:row r="6" spans="1:166">
       <x:c r="B6" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>1066</x:v>
@@ -3036,15 +3046,18 @@
         <x:v>4268</x:v>
       </x:c>
       <x:c r="FH6" s="3" t="n">
-        <x:v>2657</x:v>
+        <x:v>2659</x:v>
       </x:c>
       <x:c r="FI6" s="3" t="n">
-        <x:v>4623</x:v>
+        <x:v>5550</x:v>
+      </x:c>
+      <x:c r="FJ6" s="3" t="n">
+        <x:v>1850</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:165">
+    <x:row r="7" spans="1:166">
       <x:c r="B7" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>529</x:v>
@@ -3533,12 +3546,15 @@
         <x:v>2894</x:v>
       </x:c>
       <x:c r="FI7" s="3" t="n">
-        <x:v>3654</x:v>
+        <x:v>2549</x:v>
+      </x:c>
+      <x:c r="FJ7" s="3" t="n">
+        <x:v>1863</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:165">
+    <x:row r="8" spans="1:166">
       <x:c r="B8" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>21773</x:v>
@@ -4021,18 +4037,21 @@
         <x:v>206855</x:v>
       </x:c>
       <x:c r="FG8" s="3" t="n">
-        <x:v>192048</x:v>
+        <x:v>191588</x:v>
       </x:c>
       <x:c r="FH8" s="3" t="n">
-        <x:v>216084</x:v>
+        <x:v>215693</x:v>
       </x:c>
       <x:c r="FI8" s="3" t="n">
-        <x:v>219921</x:v>
+        <x:v>219126</x:v>
+      </x:c>
+      <x:c r="FJ8" s="3" t="n">
+        <x:v>233239</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:165">
+    <x:row r="9" spans="1:166">
       <x:c r="B9" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>23368</x:v>
@@ -4515,18 +4534,21 @@
         <x:v>206007</x:v>
       </x:c>
       <x:c r="FG9" s="3" t="n">
-        <x:v>191281</x:v>
+        <x:v>190812</x:v>
       </x:c>
       <x:c r="FH9" s="3" t="n">
-        <x:v>213870</x:v>
+        <x:v>213419</x:v>
       </x:c>
       <x:c r="FI9" s="3" t="n">
-        <x:v>220106</x:v>
+        <x:v>219077</x:v>
+      </x:c>
+      <x:c r="FJ9" s="3" t="n">
+        <x:v>228037</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:165">
+    <x:row r="10" spans="1:166">
       <x:c r="B10" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>7128</x:v>
@@ -5009,18 +5031,21 @@
         <x:v>80843</x:v>
       </x:c>
       <x:c r="FG10" s="3" t="n">
-        <x:v>67024</x:v>
+        <x:v>67085</x:v>
       </x:c>
       <x:c r="FH10" s="3" t="n">
-        <x:v>71268</x:v>
+        <x:v>70789</x:v>
       </x:c>
       <x:c r="FI10" s="3" t="n">
-        <x:v>84926</x:v>
+        <x:v>85136</x:v>
+      </x:c>
+      <x:c r="FJ10" s="3" t="n">
+        <x:v>100199</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:165">
+    <x:row r="11" spans="1:166">
       <x:c r="B11" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>2594</x:v>
@@ -5509,12 +5534,15 @@
         <x:v>12500</x:v>
       </x:c>
       <x:c r="FI11" s="3" t="n">
-        <x:v>14000</x:v>
+        <x:v>14500</x:v>
+      </x:c>
+      <x:c r="FJ11" s="3" t="n">
+        <x:v>16500</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:165">
+    <x:row r="12" spans="1:166">
       <x:c r="B12" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>630</x:v>
@@ -5997,18 +6025,21 @@
         <x:v>7287</x:v>
       </x:c>
       <x:c r="FG12" s="3" t="n">
-        <x:v>5237</x:v>
+        <x:v>5044</x:v>
       </x:c>
       <x:c r="FH12" s="3" t="n">
-        <x:v>5750</x:v>
+        <x:v>5369</x:v>
       </x:c>
       <x:c r="FI12" s="3" t="n">
-        <x:v>6849</x:v>
+        <x:v>6419</x:v>
+      </x:c>
+      <x:c r="FJ12" s="3" t="n">
+        <x:v>7288</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:165">
+    <x:row r="13" spans="1:166">
       <x:c r="B13" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>1222</x:v>
@@ -6497,12 +6528,15 @@
         <x:v>1838</x:v>
       </x:c>
       <x:c r="FI13" s="3" t="n">
-        <x:v>10686</x:v>
+        <x:v>11674</x:v>
+      </x:c>
+      <x:c r="FJ13" s="3" t="n">
+        <x:v>16285</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:165">
+    <x:row r="14" spans="1:166">
       <x:c r="B14" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>146</x:v>
@@ -6985,18 +7019,21 @@
         <x:v>3989</x:v>
       </x:c>
       <x:c r="FG14" s="3" t="n">
-        <x:v>3851</x:v>
+        <x:v>3789</x:v>
       </x:c>
       <x:c r="FH14" s="3" t="n">
-        <x:v>4096</x:v>
+        <x:v>4043</x:v>
       </x:c>
       <x:c r="FI14" s="3" t="n">
-        <x:v>4914</x:v>
+        <x:v>5030</x:v>
+      </x:c>
+      <x:c r="FJ14" s="3" t="n">
+        <x:v>5929</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:165">
+    <x:row r="15" spans="1:166">
       <x:c r="B15" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>32</x:v>
@@ -7487,10 +7524,13 @@
       <x:c r="FI15" s="3" t="n">
         <x:v>19</x:v>
       </x:c>
+      <x:c r="FJ15" s="3" t="n">
+        <x:v>18</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:165">
+    <x:row r="16" spans="1:166">
       <x:c r="B16" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>0</x:v>
@@ -7981,10 +8021,13 @@
       <x:c r="FI16" s="3" t="n">
         <x:v>286</x:v>
       </x:c>
+      <x:c r="FJ16" s="3" t="n">
+        <x:v>286</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:165">
+    <x:row r="17" spans="1:166">
       <x:c r="B17" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>74</x:v>
@@ -8473,12 +8516,15 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="FI17" s="3" t="n">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="FJ17" s="3" t="n">
+        <x:v>1259</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:165">
+    <x:row r="18" spans="1:166">
       <x:c r="B18" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>32</x:v>
@@ -8961,18 +9007,21 @@
         <x:v>3215</x:v>
       </x:c>
       <x:c r="FG18" s="3" t="n">
-        <x:v>3215</x:v>
+        <x:v>3153</x:v>
       </x:c>
       <x:c r="FH18" s="3" t="n">
-        <x:v>3343</x:v>
+        <x:v>3290</x:v>
       </x:c>
       <x:c r="FI18" s="3" t="n">
-        <x:v>3787</x:v>
+        <x:v>3902</x:v>
+      </x:c>
+      <x:c r="FJ18" s="3" t="n">
+        <x:v>4081</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:165">
+    <x:row r="19" spans="1:166">
       <x:c r="B19" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>7</x:v>
@@ -9463,10 +9512,13 @@
       <x:c r="FI19" s="3" t="n">
         <x:v>227</x:v>
       </x:c>
+      <x:c r="FJ19" s="3" t="n">
+        <x:v>285</x:v>
+      </x:c>
     </x:row>
-    <x:row r="20" spans="1:165">
+    <x:row r="20" spans="1:166">
       <x:c r="B20" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>661</x:v>
@@ -9949,18 +10001,21 @@
         <x:v>26068</x:v>
       </x:c>
       <x:c r="FG20" s="3" t="n">
-        <x:v>22148</x:v>
+        <x:v>22077</x:v>
       </x:c>
       <x:c r="FH20" s="3" t="n">
-        <x:v>23065</x:v>
+        <x:v>22661</x:v>
       </x:c>
       <x:c r="FI20" s="3" t="n">
-        <x:v>22368</x:v>
+        <x:v>22025</x:v>
+      </x:c>
+      <x:c r="FJ20" s="3" t="n">
+        <x:v>25235</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:165">
+    <x:row r="21" spans="1:166">
       <x:c r="B21" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>312</x:v>
@@ -10443,18 +10498,21 @@
         <x:v>5629</x:v>
       </x:c>
       <x:c r="FG21" s="3" t="n">
-        <x:v>6521</x:v>
+        <x:v>6537</x:v>
       </x:c>
       <x:c r="FH21" s="3" t="n">
-        <x:v>5578</x:v>
+        <x:v>5590</x:v>
       </x:c>
       <x:c r="FI21" s="3" t="n">
-        <x:v>5392</x:v>
+        <x:v>5433</x:v>
+      </x:c>
+      <x:c r="FJ21" s="3" t="n">
+        <x:v>5577</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:165">
+    <x:row r="22" spans="1:166">
       <x:c r="B22" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
         <x:v>10</x:v>
@@ -10937,18 +10995,21 @@
         <x:v>4413</x:v>
       </x:c>
       <x:c r="FG22" s="3" t="n">
-        <x:v>3621</x:v>
+        <x:v>3668</x:v>
       </x:c>
       <x:c r="FH22" s="3" t="n">
-        <x:v>4175</x:v>
+        <x:v>4177</x:v>
       </x:c>
       <x:c r="FI22" s="3" t="n">
-        <x:v>3584</x:v>
+        <x:v>3550</x:v>
+      </x:c>
+      <x:c r="FJ22" s="3" t="n">
+        <x:v>4474</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:165">
+    <x:row r="23" spans="1:166">
       <x:c r="B23" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="n">
         <x:v>31</x:v>
@@ -11434,15 +11495,18 @@
         <x:v>1004</x:v>
       </x:c>
       <x:c r="FH23" s="3" t="n">
-        <x:v>1044</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="FI23" s="3" t="n">
-        <x:v>980</x:v>
+        <x:v>1043</x:v>
+      </x:c>
+      <x:c r="FJ23" s="3" t="n">
+        <x:v>1151</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:165">
+    <x:row r="24" spans="1:166">
       <x:c r="B24" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="n">
         <x:v>308</x:v>
@@ -11925,18 +11989,21 @@
         <x:v>14035</x:v>
       </x:c>
       <x:c r="FG24" s="3" t="n">
-        <x:v>11002</x:v>
+        <x:v>10868</x:v>
       </x:c>
       <x:c r="FH24" s="3" t="n">
-        <x:v>12268</x:v>
+        <x:v>11811</x:v>
       </x:c>
       <x:c r="FI24" s="3" t="n">
-        <x:v>12412</x:v>
+        <x:v>11999</x:v>
+      </x:c>
+      <x:c r="FJ24" s="3" t="n">
+        <x:v>14033</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:165">
+    <x:row r="25" spans="1:166">
       <x:c r="B25" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>1875</x:v>
@@ -12419,18 +12486,21 @@
         <x:v>28346</x:v>
       </x:c>
       <x:c r="FG25" s="3" t="n">
-        <x:v>23760</x:v>
+        <x:v>24147</x:v>
       </x:c>
       <x:c r="FH25" s="3" t="n">
-        <x:v>24020</x:v>
+        <x:v>24379</x:v>
       </x:c>
       <x:c r="FI25" s="3" t="n">
-        <x:v>26109</x:v>
+        <x:v>25488</x:v>
+      </x:c>
+      <x:c r="FJ25" s="3" t="n">
+        <x:v>28962</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:165">
+    <x:row r="26" spans="1:166">
       <x:c r="B26" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>742</x:v>
@@ -12913,18 +12983,21 @@
         <x:v>5701</x:v>
       </x:c>
       <x:c r="FG26" s="3" t="n">
-        <x:v>4823</x:v>
+        <x:v>4757</x:v>
       </x:c>
       <x:c r="FH26" s="3" t="n">
-        <x:v>4752</x:v>
+        <x:v>4595</x:v>
       </x:c>
       <x:c r="FI26" s="3" t="n">
-        <x:v>4807</x:v>
+        <x:v>4575</x:v>
+      </x:c>
+      <x:c r="FJ26" s="3" t="n">
+        <x:v>5280</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:165">
+    <x:row r="27" spans="1:166">
       <x:c r="B27" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>72</x:v>
@@ -13407,18 +13480,21 @@
         <x:v>1140</x:v>
       </x:c>
       <x:c r="FG27" s="3" t="n">
-        <x:v>1168</x:v>
+        <x:v>1129</x:v>
       </x:c>
       <x:c r="FH27" s="3" t="n">
-        <x:v>1420</x:v>
+        <x:v>1417</x:v>
       </x:c>
       <x:c r="FI27" s="3" t="n">
-        <x:v>1293</x:v>
+        <x:v>1294</x:v>
+      </x:c>
+      <x:c r="FJ27" s="3" t="n">
+        <x:v>1494</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:165">
+    <x:row r="28" spans="1:166">
       <x:c r="B28" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="n">
         <x:v>211</x:v>
@@ -13901,18 +13977,21 @@
         <x:v>545</x:v>
       </x:c>
       <x:c r="FG28" s="3" t="n">
-        <x:v>460</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="FH28" s="3" t="n">
-        <x:v>500</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="FI28" s="3" t="n">
-        <x:v>485</x:v>
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="FJ28" s="3" t="n">
+        <x:v>578</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:165">
+    <x:row r="29" spans="1:166">
       <x:c r="B29" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>226</x:v>
@@ -14395,18 +14474,21 @@
         <x:v>4902</x:v>
       </x:c>
       <x:c r="FG29" s="3" t="n">
-        <x:v>3882</x:v>
+        <x:v>4097</x:v>
       </x:c>
       <x:c r="FH29" s="3" t="n">
-        <x:v>3918</x:v>
+        <x:v>4125</x:v>
       </x:c>
       <x:c r="FI29" s="3" t="n">
-        <x:v>4143</x:v>
+        <x:v>4333</x:v>
+      </x:c>
+      <x:c r="FJ29" s="3" t="n">
+        <x:v>5301</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:165">
+    <x:row r="30" spans="1:166">
       <x:c r="B30" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="n">
         <x:v>38</x:v>
@@ -14889,18 +14971,21 @@
         <x:v>1218</x:v>
       </x:c>
       <x:c r="FG30" s="3" t="n">
-        <x:v>1269</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="FH30" s="3" t="n">
-        <x:v>1156</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="FI30" s="3" t="n">
-        <x:v>1546</x:v>
+        <x:v>1507</x:v>
+      </x:c>
+      <x:c r="FJ30" s="3" t="n">
+        <x:v>1565</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:165">
+    <x:row r="31" spans="1:166">
       <x:c r="B31" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="n">
         <x:v>37</x:v>
@@ -15383,18 +15468,21 @@
         <x:v>12412</x:v>
       </x:c>
       <x:c r="FG31" s="3" t="n">
-        <x:v>9290</x:v>
+        <x:v>9324</x:v>
       </x:c>
       <x:c r="FH31" s="3" t="n">
-        <x:v>9658</x:v>
+        <x:v>9704</x:v>
       </x:c>
       <x:c r="FI31" s="3" t="n">
-        <x:v>10731</x:v>
+        <x:v>10168</x:v>
+      </x:c>
+      <x:c r="FJ31" s="3" t="n">
+        <x:v>11201</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:165">
+    <x:row r="32" spans="1:166">
       <x:c r="B32" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="n">
         <x:v>549</x:v>
@@ -15880,15 +15968,18 @@
         <x:v>2868</x:v>
       </x:c>
       <x:c r="FH32" s="3" t="n">
-        <x:v>2616</x:v>
+        <x:v>2614</x:v>
       </x:c>
       <x:c r="FI32" s="3" t="n">
-        <x:v>3104</x:v>
+        <x:v>3105</x:v>
+      </x:c>
+      <x:c r="FJ32" s="3" t="n">
+        <x:v>3543</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:165">
+    <x:row r="33" spans="1:166">
       <x:c r="B33" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="n">
         <x:v>7128</x:v>
@@ -16371,143 +16462,146 @@
         <x:v>86477</x:v>
       </x:c>
       <x:c r="FG33" s="3" t="n">
-        <x:v>72648</x:v>
+        <x:v>72712</x:v>
       </x:c>
       <x:c r="FH33" s="3" t="n">
-        <x:v>77151</x:v>
+        <x:v>76740</x:v>
       </x:c>
       <x:c r="FI33" s="3" t="n">
-        <x:v>91334</x:v>
+        <x:v>91600</x:v>
+      </x:c>
+      <x:c r="FJ33" s="3" t="n">
+        <x:v>107245</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:165">
+    <x:row r="36" spans="1:166">
       <x:c r="A36" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:165">
+    <x:row r="37" spans="1:166">
       <x:c r="A37" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:165">
+    <x:row r="38" spans="1:166">
       <x:c r="A38" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:166">
+      <x:c r="A40" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:166">
+      <x:c r="A41" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:166">
+      <x:c r="A43" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:166">
+      <x:c r="A44" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:165">
-      <x:c r="A40" s="0" t="s">
-        <x:v>198</x:v>
+    <x:row r="45" spans="1:166">
+      <x:c r="A45" s="0" t="s">
+        <x:v>202</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:165">
-      <x:c r="A41" s="0" t="s">
-        <x:v>199</x:v>
+    <x:row r="46" spans="1:166">
+      <x:c r="A46" s="0" t="s">
+        <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:165">
-      <x:c r="A43" s="0" t="s">
-        <x:v>200</x:v>
+    <x:row r="47" spans="1:166">
+      <x:c r="A47" s="0" t="s">
+        <x:v>204</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:165">
-      <x:c r="A44" s="0" t="s">
-        <x:v>196</x:v>
+    <x:row r="51" spans="1:166">
+      <x:c r="A51" s="0" t="s">
+        <x:v>205</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:165">
-      <x:c r="A45" s="0" t="s">
-        <x:v>201</x:v>
+    <x:row r="53" spans="1:166">
+      <x:c r="A53" s="0" t="s">
+        <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:165">
-      <x:c r="A46" s="0" t="s">
-        <x:v>202</x:v>
+    <x:row r="54" spans="1:166">
+      <x:c r="A54" s="0" t="s">
+        <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:165">
-      <x:c r="A47" s="0" t="s">
-        <x:v>203</x:v>
+    <x:row r="55" spans="1:166">
+      <x:c r="A55" s="0" t="s">
+        <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:165">
-      <x:c r="A51" s="0" t="s">
-        <x:v>204</x:v>
+    <x:row r="56" spans="1:166">
+      <x:c r="A56" s="0" t="s">
+        <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:165">
-      <x:c r="A53" s="0" t="s">
-        <x:v>205</x:v>
+    <x:row r="57" spans="1:166">
+      <x:c r="A57" s="0" t="s">
+        <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:165">
-      <x:c r="A54" s="0" t="s">
-        <x:v>196</x:v>
+    <x:row r="58" spans="1:166">
+      <x:c r="A58" s="0" t="s">
+        <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:165">
-      <x:c r="A55" s="0" t="s">
-        <x:v>206</x:v>
+    <x:row r="60" spans="1:166">
+      <x:c r="A60" s="0" t="s">
+        <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:165">
-      <x:c r="A56" s="0" t="s">
-        <x:v>207</x:v>
+    <x:row r="61" spans="1:166">
+      <x:c r="A61" s="0" t="s">
+        <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:165">
-      <x:c r="A57" s="0" t="s">
-        <x:v>196</x:v>
+    <x:row r="62" spans="1:166">
+      <x:c r="A62" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:165">
-      <x:c r="A58" s="0" t="s">
-        <x:v>208</x:v>
+    <x:row r="65" spans="1:166">
+      <x:c r="A65" s="0" t="s">
+        <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:165">
-      <x:c r="A60" s="0" t="s">
-        <x:v>209</x:v>
+    <x:row r="66" spans="1:166">
+      <x:c r="A66" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:165">
-      <x:c r="A61" s="0" t="s">
-        <x:v>164</x:v>
+    <x:row r="71" spans="1:166">
+      <x:c r="A71" s="0" t="s">
+        <x:v>213</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:165">
-      <x:c r="A62" s="0" t="s">
-        <x:v>210</x:v>
+    <x:row r="72" spans="1:166">
+      <x:c r="A72" s="0" t="s">
+        <x:v>214</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:165">
-      <x:c r="A65" s="0" t="s">
-        <x:v>196</x:v>
+    <x:row r="74" spans="1:166">
+      <x:c r="A74" s="0" t="s">
+        <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:165">
-      <x:c r="A66" s="0" t="s">
-        <x:v>211</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:165">
-      <x:c r="A71" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:165">
-      <x:c r="A72" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:165">
-      <x:c r="A74" s="0" t="s">
-        <x:v>214</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:165">
+    <x:row r="75" spans="1:166">
       <x:c r="A75" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
